--- a/tests/unittest_summary/unittest_implicators_summary.xlsx
+++ b/tests/unittest_summary/unittest_implicators_summary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t xml:space="preserve">Test Function</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve"># TODO: when a class does not have docstring, it returns the base calss docstring. This is wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_implicator_matrix_consistency_with_scalar_application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output correctness when matrix (2d np.array) is passed to be sure lb and ub in itfrs are correct</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,11 +286,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,19 +550,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="122.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="87.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="87.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,7 +603,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -733,6 +743,14 @@
       </c>
       <c r="E12" s="4" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
